--- a/src/test/resources/homePageTestData.xlsx
+++ b/src/test/resources/homePageTestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\IdeaProjects\demoblaze\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD2B9BF-4002-45AE-A3B1-0957529387D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3233624E-AC9C-400D-851D-3E40421A5691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E09886AD-8734-4170-BB23-AF7D27A0C7B0}"/>
+    <workbookView xWindow="2832" yWindow="2136" windowWidth="17280" windowHeight="8880" xr2:uid="{E09886AD-8734-4170-BB23-AF7D27A0C7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>firstPageElementsCount</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Actual</t>
-  </si>
-  <si>
-    <t>20</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
